--- a/EmailDB.xlsx
+++ b/EmailDB.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c135dec0410abb47/Área de Trabalho/robo/eviaremail/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c135dec0410abb47/Área de Trabalho/robo/BKP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="11_4171FACA1B368F44090EFFA29329332D78F909B3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71F4C5C8-A424-4CF9-A8FB-4EF79CAE9053}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="11_4171FACA1B368F44090EFFA29329332D78F909B3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6FFA283-5B43-4A1C-90C8-D7E113F26EDD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="1448">
   <si>
     <t>Name</t>
   </si>
@@ -2234,7 +2234,2149 @@
     <t>Érika  Iglesias Gomes</t>
   </si>
   <si>
-    <t>gabriellp7245@gmail.com</t>
+    <t>suporte6.webmotors@activecs.com.br</t>
+  </si>
+  <si>
+    <t>suporte8.webmotors@activecs.com.br</t>
+  </si>
+  <si>
+    <t>adilson.bernardo@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>adrian.borsati@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>asouza@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>adriana.duarte@b2finance.com</t>
+  </si>
+  <si>
+    <t>adriana.frota@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>adriana.oliveira@ax4b.com</t>
+  </si>
+  <si>
+    <t>adriane.almeida@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>aoshima@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>agata.visalli@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>alan.rodrigues@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>albert.silva@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>aleksandre.santos@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>suporte@activecs.com.br</t>
+  </si>
+  <si>
+    <t>aleson.souza@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>asilva@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>alex.oliveira@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>alex.soares@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>alexander.ortega@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>alexandre.costa@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>alexandre.pinheiro@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>alexsandro.pereira@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>aclaudino@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>alfeu.oliveira@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>alicia.lopes@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>alina.samezima@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>aline.souza@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>aline.silva@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>pageinterim.costa@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>aline.diniz@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>aline.almeida@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>aline.cintra@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>pageinterim.allan@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>alvaro.carneiro@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>amanda.oliveira@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>amanda.assis@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>amanda.bueno@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>ana.oliveira@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>ana.dib@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>ana.lima@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>ana.pires@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>ana.portigliotti@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>ana.cruz@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>pagepersonnel.cruz@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>anderson.barranha@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>anderson.gavetti@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>andre.jofer@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>andre.kliousoff@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>Andre.Cardoso@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>andre.vinicius@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>andrea.sardinha@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>andrea.tagliacolli@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>andreia.ponte@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>andreia.medeiros@ax4b.com</t>
+  </si>
+  <si>
+    <t>andre.verdegay@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>andre.kenji@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>anisia.almeida@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>pagepersonnel.ramos@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>anna.nascimento@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>carolina.esposito@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>anny.caroliny@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>antonia.pereira@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>apontamentohoras@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>arielly.costa@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>armindo.simao@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>arthur.giestas@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>arthur.alessio@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>pagepersonnel.rodrigues@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>barbara.leite@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>barbara.goncalves@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>beatriz.silva@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>bianca.antonelli@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>pagepersonnel.lopes@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>bianca@fastalways.com.br</t>
+  </si>
+  <si>
+    <t>bianca.guedes@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>bianca.silva@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>btestoni@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>bianca.faustino@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>bianca.guireli@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>infra@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>bruna.drozczak@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>bruna.camargo@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>bruna.rodrigues@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>bruna.sousa@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>bruna.silva@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>pageinterim.bruna@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>bruno.bortolotto@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>bruno.cristiano@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>bruno.vomero@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>bsantos@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>bruno.accorsi@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>p22.correa@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>caio.valenti@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>caio.bingre@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>caio.alencar@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>caique.barbosa@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>calebe.queiroz@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>camila.ferreira@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>carosa@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>camila.araujo@b2finance.com</t>
+  </si>
+  <si>
+    <t>camila.deus@b2finance.com</t>
+  </si>
+  <si>
+    <t>pagepersonnel.braga@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>camila.carvalho@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>camila.marques@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>camila.raduan@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>camila.oliveira@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>camilo.negreiros@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>carina.brito@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>carla.andrade@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>carlosasilva@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>espro.carlos@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>scaramuza.carlos@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>carlos.duarte@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>carlos.pessoa@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>caroline.silva@b2finance.com</t>
+  </si>
+  <si>
+    <t>caroline.fernandes@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>caroline.espinosa@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>cassia.grynszpan@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>cassio.neto@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>pagepersonnel.barbosa@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>cesar.monterosso@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>cezar.ferreira@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>charlene.sacramento@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>charles.plautz@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>christian.ciuro@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>cborghesan@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>pagepersonnel.silva@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>cibele.ribeiro@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>cibele.diniz@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>cintia.bertelli@b2finance.com</t>
+  </si>
+  <si>
+    <t>cintia.lima@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>claudia.barreto@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>claudia.reis@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>claudia.woods@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>claudio.silva@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>cleiton.santos@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>controladoria@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>mariana@ascontabil.com.br</t>
+  </si>
+  <si>
+    <t>mayara.oliveira@b2finance.com</t>
+  </si>
+  <si>
+    <t>cristiano.vieira@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>cris.rother@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>cynthia.santos@b2finance.com</t>
+  </si>
+  <si>
+    <t>doliveira@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>daiene.neves@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>daniel.sousa@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>danielp@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>daniela.santos@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>danielle.matuda@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>danielle.teixeira@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>danilo.oliveira@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>danilo.barreto@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>daphne.veleda@poacarros.com</t>
+  </si>
+  <si>
+    <t>darreis@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>david.franca@ax4b.com</t>
+  </si>
+  <si>
+    <t>pagepersonnel.davil@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>debora.pacanaro@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>deise.batista@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>p22.imfeld@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>demetryus.oliveira@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>denis.rocco@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>denis.dainese@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>denis.oliveira@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>bold.deucimara@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>diego.robledo@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>disilveira@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>diego.fukuhara@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>consultor5A.galiza@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>diego.souza@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>diego.rufino@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>diogo.marques@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>dmiranda@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>douglas.moraes@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>deborah.silva@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>eber.rocha@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>edmar.batista@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>eduardo.campos@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>eduardo.silva@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>eduardo.junior@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>eduardo.jurcevic@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>edwin.cavina@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>eficiencia@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>elaine.oliveira@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>elaine.carneiro@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>elaine.lima@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>elaine.freitas@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>eliane.silva@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>pagepersonnel.oliveira@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>workon.eliane@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>elisete.silva@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>elluy.pereira@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>elton.lopes@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>emanuel.sabino@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>emerson.lima@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>emili.fonseca@b2finance.com</t>
+  </si>
+  <si>
+    <t>eric.rodrigues@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>erika.goncalves@b2finance.com</t>
+  </si>
+  <si>
+    <t>erika.barreto@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>p22.estefanny@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>ester.pimentel@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>evandro.souza@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>evpereira@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>ewerton.silva@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>fabiana.lima@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>fabiana.santos@b2finance.com</t>
+  </si>
+  <si>
+    <t>fabiana.silva@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>fabiano.ramos@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>fabio.pinheiro@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>mirante.sarmento@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>fabiola.lima@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>fabricio.barao@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>fabiola.melo@b2finance.com</t>
+  </si>
+  <si>
+    <t>webmotors@fastalways.com.br</t>
+  </si>
+  <si>
+    <t>webmotors1@fastalways.com.br</t>
+  </si>
+  <si>
+    <t>faturamento.wm@oxygensystems.com.br</t>
+  </si>
+  <si>
+    <t>felipe.claudino@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>felipe.ramos@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>felipe.almeida@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>Felipe.lima@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>felipe.gasparetto@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>pageinterim.barros@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>felipe.pires@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>pagepersonnel.bazani@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>felipe.meneghim@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>felipe.ruela@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>felipe.souza@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>felipe.kleinubing@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>felipe.silva@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>fernanda.gasciarino@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>fernando.pereira@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>fernando.miranda@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>fernando.matoso@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>fernando.edalecio@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>fj.informacao@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>fernando.chelucci@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>fernando.tinem@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>fernando.kreidloro@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>fernando.marques@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>filipe.mendes@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>filipe.salado@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>fillip.bayer@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>filyppi.morelato@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>flavio.passos@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>franciane.barbosa@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>taking.silveira@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>francine.regina@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>pagepersonnel.paraguai@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>francisca.silva@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>gabriel.procopio@ax4b.com</t>
+  </si>
+  <si>
+    <t>espro.gabriel@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>gabriel.souza@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>gabriel.almeida@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>gabriel.antonio@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>gabriel.alves@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>p22.moreira@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>gabriel.prates@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>gabriela.bento@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>gabriela.carvalho@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>gabriela.gaviao@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>pageinterim.gabriela@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>gabriella.santos@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>gabrielle.solano@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>gabrielli.martins@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>geovane.rosa@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>gerson.pechim@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>giovasilva@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>giovanna.gerin@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>giovanna.vetri@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>giovanna.rossi@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>giovanna.miranda@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>giovanna.santos@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>gisele.souza@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>gisele.devens@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>giulia.olio@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>gleisson.silva@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>graziela.pereira@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>grazielly.celestino@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>gquintana@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>guilherme.felix@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>guilherme.santos@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>gustavo.assumpcao@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>pageinterim.liotti@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>gustavo.bueno@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>gustavo.schmitt@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>gustavo.dias@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>heider.souza@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>helias.rodrigues@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>hellen.ferreira@b2finance.com</t>
+  </si>
+  <si>
+    <t>pagepersonnel.mendes@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>henrique.yamaguti@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>henrique.fonseca@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>herber.pucinelli@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>hermes.dias@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>iago.garcia@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>iago.brandao@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>p22.amaro@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>idalina.santos@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>igor.pinterich@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>ilma.santos@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>ingrid.olinda@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>integracao.cnab@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>integrador.synchro@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>isaacfcarvalho@gmail.com</t>
+  </si>
+  <si>
+    <t>isabela.augusto@b2finance.com</t>
+  </si>
+  <si>
+    <t>isabela.vaz@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>isabela.cano@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>isabella.santos@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>ioliveira@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>isabelle.reis@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>pageinterim.isaura@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>ivan.azevedo@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>izabela.borges@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>izabella.lopes@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>jailson.silva@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>janaina.tenorio@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>jaqueline.carvalho@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>jasmin.berezaga@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>jeasoares@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>jefferson.batista@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>jefferson.santos@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>jefferson.rocha@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>jhonni.senem@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>joelma.vieira@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>john.cavalheiro@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>jonas.carmo@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>jonatan.mariz@b2finance.com</t>
+  </si>
+  <si>
+    <t>jonatas.melo@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>jsilva@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>jordan.james@carsales.com.au</t>
+  </si>
+  <si>
+    <t>jorge.gomes@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>jorge.ferraz@b2finance.com</t>
+  </si>
+  <si>
+    <t>jose.silva@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>pageinterim.oliveira@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>jose.freire@activecs.com.br</t>
+  </si>
+  <si>
+    <t>p22.joyce@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>joao.amado@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>espro.joao@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>juan.mauad@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>julia.moraes@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>julia.cunha@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>julia.tagashira@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>julia.andery@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>juliana.costa@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>jmartins@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>pageinterim.diniz@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>juliana.reyes@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>juliana.silva@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>juliana.utchuk@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>juliana.utchuk@web.com.br</t>
+  </si>
+  <si>
+    <t>julio.reis@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>julio.choque@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>kaio.moreira@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>kaio.almeida@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>karen.souza@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>karina.simoes@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>karla.lima@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>pagepersonnel.citolo@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>katia.celina@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>katia.missina@b2finance.com</t>
+  </si>
+  <si>
+    <t>klauber.silva@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>laio.passos@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>lanna@ascontabil.com.br</t>
+  </si>
+  <si>
+    <t>lara.esparta@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>larissa.gios@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>larissa.silva@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>larissa.dutra@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>larissa.paixao@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>larissa.lima@b2finance.com</t>
+  </si>
+  <si>
+    <t>p22.larissa@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>larson.guimaraes@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>pageinterim.carvalho@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>layla.matos@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>leandro.moreira@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>leandro.orsi@ax4b.com</t>
+  </si>
+  <si>
+    <t>leidiane.santos@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>pagepersonnel.leilane@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>leonardo.comparoni@ax4b.com</t>
+  </si>
+  <si>
+    <t>lsilva@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>leonardo.batista@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>leonardo.msilva@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>leonardo.machado@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>llima@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>leticia.barroso@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>leticia.barros@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>pagepersonnel.guimaraes@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>leticia.mathias@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>leticia.leandro@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>taking.fernandes@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>ligia.oliveira@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>pagepersonnel.paula@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>lilian.araujo@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>lilian.nati@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>luana.silva@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>pagepersonnel.souza@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>luana.oliveira@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>ljardim@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>luana.sousa@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>luana.brevinski@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>luana.munekata@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>lucas.soares@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>lucas.bezerra@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>lucas.prado@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>lucas.cravo@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>lucas.medeiros@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>lbarreiro@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>lucas.medeiros2@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>pagepersonnel.miranda@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>lucas.nunes@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>lucas.pessoni@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>lucas.silva@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>lucas.tobias@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>luciana.archilla@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>luciana.gulisz@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>luciano.oliveira@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>ldallarosa@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>ludmila.ribeiro@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>luis.muchon@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>luisa.bacchi@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>luiz.pasqualini@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>luiz.figueiredo@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>luiz.parussolo@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>luiz.tavares@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>luiz.diniz@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>luiz.zerbinatti@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>lmariano@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>luiza.santos@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>luiza.castro@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>lkawakami@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>maelle.ribeiro@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>maira.wheeler@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>manuela.gomes@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>manuela.nascimento@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>marccardoso@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>marcela.peres@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>marcela.morimoto@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>marcello.carvalho@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>marcelo.monegato@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>mmonegato@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>marcelo.teraoka@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>mcirilo@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>marcia.novais@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>marcio.cola@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>pagepersonnel.junior@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>marcos.oliveira@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>marcos.endo@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>consultor5a.stoko@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>marcos.rodrigues@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>marcos.souza@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>marcus.martins@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>mbarros@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>maria.cid@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>maria.miranda@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>maria.caetano@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>maria.correa@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>suyanne.sousa@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>mariana.toledo@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>mariana.correia@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>mariana.tavaraya@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>mariana.oliveira@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>mariana.perez@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>mariana.rodrigues@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>mariana.sacramento@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>marianna.piacesi@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>marianna.silva@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>marina.oliveira@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>marina.braum@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>pageinterim.marina@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>mario.alves@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>pagepersonnel.araujo@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>marta.bezerra@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>marvin.couto@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>mateus.poli@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>p22.mateus@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>matheus.guelfi@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>giovanni.chemello@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>matheus.rodrigues@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>mbueno@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>mayara.bomfim@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>maycol.vieira@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>mcunha@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>melissa.souza@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>michele.tonello@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>michoel.chaikin@carsales.com.au</t>
+  </si>
+  <si>
+    <t>milton.ramos@ax4b.com</t>
+  </si>
+  <si>
+    <t>monique.robatino@b2finance.com</t>
+  </si>
+  <si>
+    <t>moreno.oliveira@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>muriel.assis@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>pageinterim.cavalli@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>murilo.castro@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>monica.iwamoto@b2finance.com</t>
+  </si>
+  <si>
+    <t>natalia.firmino@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>natalia.jannuzzi@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>pageinterim.zambrano@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>natalia.penna@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>natanniel.martys@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>nathalia.bandeira@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>nathalia.pereira@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>nathalia.cruz@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>bold.natalia@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>pageinterim.bento@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>nayara.delaqua@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>nayra@activecs.com.br</t>
+  </si>
+  <si>
+    <t>nelson.neto@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>nicolas.deldalle@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>noemi.silva@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>ohana.poersch@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>orlando@activecs.com.br</t>
+  </si>
+  <si>
+    <t>webmotors@o2systems.com.br</t>
+  </si>
+  <si>
+    <t>oxygen1@oxygen.systems</t>
+  </si>
+  <si>
+    <t>oxygen2@oxygen.systems</t>
+  </si>
+  <si>
+    <t>oxygen3@oxygen.systems</t>
+  </si>
+  <si>
+    <t>oxygen4@oxygen.systems</t>
+  </si>
+  <si>
+    <t>oxygen5@oxygen.systems</t>
+  </si>
+  <si>
+    <t>paloma.farias@ax4b.com</t>
+  </si>
+  <si>
+    <t>paola.koch@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>paolla.pessil@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>patricia.borges@ax4b.com</t>
+  </si>
+  <si>
+    <t>patricia.miron@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>paul.barlow@carsales.com.au</t>
+  </si>
+  <si>
+    <t>paula.roschel@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>pagepersonnel.sousa@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>paulo.lunardi@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>p22.lunardi@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>paulo.tiroli@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>pedro.bacelar@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>pedro.carvalho@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>pedro.fleury@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>pedro.oliveira@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>peoplepro.polyanna@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>priscila.gediao@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>qalmeida@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>qalmeida2@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>rachel.clemente@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>rafael.bentim@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>Rafael.Bianchi@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>rafael.filho@ax4b.com</t>
+  </si>
+  <si>
+    <t>rconstantinou@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>rafael.bitar@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>rafael.silveira@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>rafael.carmona@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>rafael.okochi@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>ramiro.souza@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>pagepersonnel.paz@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>Raphas.cristine@gmail.com</t>
+  </si>
+  <si>
+    <t>p22.raquel@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>raul.fernandes@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>pagepersonnel.leite@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>espro.rebeca@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>pagepersonnel.pereira@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>regiane.pereira@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>pagepersonnel.pinheiro@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>renan.beca@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>rferraz@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>renan.ortolan@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>renata.braga@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>renata.loureiro@b2finance.com</t>
+  </si>
+  <si>
+    <t>renata.silva@b2finance.com</t>
+  </si>
+  <si>
+    <t>RENASENA.ABREU@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>renata.botelho@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>renato.carvalho@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>renato.wesenauer@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>renato.casseb@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>renato.goncalves@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>pageinterim.renato@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>rmoraes@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>renato.rocha@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>ricardo.magalhaes@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>ricardo.nora@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>ricardo.falcarella@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>ricardo.jesus@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>ricardo.sonoda@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>rildo.mendes@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>p22.rildo@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>roberto.silva@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>robson.vaz@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>rodger@meucarango.com</t>
+  </si>
+  <si>
+    <t>rodolfo.silva@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>consultor5a.santos@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>rodrigo.batista@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>rodrigo.pires@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>rodrigo.negreiro@b2finance.com</t>
+  </si>
+  <si>
+    <t>rodrigo.becker@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>rodrigo.borer@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>rodrigo.garcia@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>rodrigo.silva@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>ralviani@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>rodrigo.nunes@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>rferreira@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>rribeiro@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>rodrigo.oliveira@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>ronaldo.generato@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>ronan.dias@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>rosangela.souza@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>rsobrinho@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>sabiny@fastalways.com.br</t>
+  </si>
+  <si>
+    <t>sabrina.silveira@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>sabrina.miranda@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>pagepersonnel.santos@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>samuel.alcantara@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>sandra.hypolito@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>sarah.costa@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>sarah.sodre@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>saulo.silva@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>sergio.henrique@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>skfassniak@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>shirley.cerodio@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>p22.shirley@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>silene.santos@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>silmara.silva@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>silvio.junior@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>simone.silva@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>simone.ferreira@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>solange.paiva@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>sestrada@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>stephany.reis@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>suelen.sampaio@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>suellen.pereira@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>suporte5.webmotors@activecs.com.br</t>
+  </si>
+  <si>
+    <t>suporte.active@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>suporte1.webmotors@activecs.com.br</t>
+  </si>
+  <si>
+    <t>suporte.contabil2@activecs.com.br</t>
+  </si>
+  <si>
+    <t>suporte.fiscal@activecs.com.br</t>
+  </si>
+  <si>
+    <t>parcelamento.wm@oxygensystems.com.br</t>
+  </si>
+  <si>
+    <t>suporte.produto@activecs.com.br</t>
+  </si>
+  <si>
+    <t>suporte2.produto@activecs.com.br</t>
+  </si>
+  <si>
+    <t>suporte3.produto@activecs.com.br</t>
+  </si>
+  <si>
+    <t>soportetk.webmotors@tekiio.com.br</t>
+  </si>
+  <si>
+    <t>suporte.workflows@activecs.com.br</t>
+  </si>
+  <si>
+    <t>suporte1.produto@activecs.com.br</t>
+  </si>
+  <si>
+    <t>suporte2.webmotors@activecs.com.br</t>
+  </si>
+  <si>
+    <t>suporte3.webmotors@activecs.com.br</t>
+  </si>
+  <si>
+    <t>suporte4.webmotors@activecs.com.br</t>
+  </si>
+  <si>
+    <t>suporte7.webmotors@activecs.com.br</t>
+  </si>
+  <si>
+    <t>nexmuv.socrates@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>tais.dias@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>tais.gerhardt@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>talita.barbosa@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>tamen.bravus@poacarros.com</t>
+  </si>
+  <si>
+    <t>tamires.oliveira@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>tamires.guedes@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>pagepersonnel.guedes@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>tarik.carvalho@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>tathiana.scapolatieri@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>tatiane.denti@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>tatiane.santos@b2finance.com</t>
+  </si>
+  <si>
+    <t>tatiane.teles@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>tsugiura@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>desenvolvimento.webmotors@tekiio.com.br</t>
+  </si>
+  <si>
+    <t>dgaliza@gmail.com</t>
+  </si>
+  <si>
+    <t>thabata.bem@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>taires@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>thaina.santos@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>thais.pires@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>pageinterim.andressa@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>thais.rosa@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>thais.pereira@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>thais.helena@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>thais.vieira@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>thiago.lima@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>thiago.cavalcante@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>thiago@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>thiago.donato@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>stit.moura@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>toliveira@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>thiers.silva@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>thyeca.garcia@b2finance.com</t>
+  </si>
+  <si>
+    <t>ti@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>ti2@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>ti3@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>tiago.cintra@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>tomas.nogueira@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>tuane.leite@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>tvaldo@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>tulio.marins@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>tassia.garcia@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>vjesus@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>vanessa.dobjanski@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>vanessa.penninck@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>vanessa.serradas@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>vencislene.santos@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>vicente.pietrobon@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>victor.iha@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>victor.brunner@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>victor.greco@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>vinicius.andre@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>vinicius.araujo@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>vinicius.sousa@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>vinicius.tiba@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>vitor.locci@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>vitoria.lima@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>pageinterim.pereira@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>vivian.penhoela@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>vivian.dias@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>vivian.pereira@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>pageinterim.vivian@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>waldemir.junior@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>wanessa.souza@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>watson@blucarros.com.br</t>
+  </si>
+  <si>
+    <t>webmotors@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>pageinterim.jorge@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>wellington.menezes@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>weverton.pereira@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>wfernandes@meucarango.com</t>
+  </si>
+  <si>
+    <t>william.viana@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>william.artoni@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>willian@blucarros.com.br</t>
+  </si>
+  <si>
+    <t>willian.mendonca@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>willian.leao@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>yan.cunha@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>yasmin.chagas@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>yhago.souza@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>yuri.gomes@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>zilah.carvalho@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>erika.iglesias@webmotors.com.br</t>
+  </si>
+  <si>
+    <t>integrador.synchro.wm@acivecs.com.br</t>
   </si>
 </sst>
 </file>
@@ -2608,10 +4750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B732"/>
+  <dimension ref="A1:B733"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2629,7 +4771,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>733</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2645,7 +4787,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2653,7 +4795,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2661,7 +4803,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2669,7 +4811,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2677,7 +4819,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2685,7 +4827,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>733</v>
+        <v>739</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2693,7 +4835,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>733</v>
+        <v>740</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2701,7 +4843,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>733</v>
+        <v>741</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2709,7 +4851,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>733</v>
+        <v>742</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2717,7 +4859,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>733</v>
+        <v>743</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2725,7 +4867,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>733</v>
+        <v>744</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2733,7 +4875,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>733</v>
+        <v>745</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2741,7 +4883,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>733</v>
+        <v>746</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2749,7 +4891,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>733</v>
+        <v>747</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2757,7 +4899,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>733</v>
+        <v>748</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2765,7 +4907,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>733</v>
+        <v>749</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2773,7 +4915,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>733</v>
+        <v>750</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2781,7 +4923,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>733</v>
+        <v>751</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2789,7 +4931,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>733</v>
+        <v>752</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2797,7 +4939,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>733</v>
+        <v>753</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2805,7 +4947,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>733</v>
+        <v>754</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2813,7 +4955,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>733</v>
+        <v>755</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -2821,7 +4963,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>733</v>
+        <v>756</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2829,7 +4971,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>733</v>
+        <v>757</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2837,7 +4979,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>733</v>
+        <v>758</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -2845,7 +4987,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>733</v>
+        <v>759</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -2853,7 +4995,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>733</v>
+        <v>760</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -2861,7 +5003,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>733</v>
+        <v>761</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -2869,7 +5011,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>733</v>
+        <v>762</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2877,7 +5019,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>733</v>
+        <v>763</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -2885,7 +5027,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>733</v>
+        <v>764</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2893,7 +5035,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>733</v>
+        <v>765</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -2901,7 +5043,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>733</v>
+        <v>766</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -2909,7 +5051,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>733</v>
+        <v>767</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -2917,7 +5059,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>733</v>
+        <v>768</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -2925,7 +5067,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>733</v>
+        <v>769</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -2933,7 +5075,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>733</v>
+        <v>770</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -2941,7 +5083,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>733</v>
+        <v>771</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -2949,7 +5091,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>733</v>
+        <v>772</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -2957,7 +5099,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>733</v>
+        <v>773</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -2965,7 +5107,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>733</v>
+        <v>774</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -2973,7 +5115,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>733</v>
+        <v>775</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -2981,7 +5123,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>733</v>
+        <v>776</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -2989,7 +5131,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>733</v>
+        <v>777</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -2997,7 +5139,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>733</v>
+        <v>778</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -3005,7 +5147,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>733</v>
+        <v>779</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -3013,7 +5155,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>733</v>
+        <v>780</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -3021,7 +5163,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>733</v>
+        <v>781</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -3029,7 +5171,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>733</v>
+        <v>782</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -3037,7 +5179,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>733</v>
+        <v>783</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -3045,7 +5187,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>733</v>
+        <v>784</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -3053,7 +5195,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>733</v>
+        <v>785</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -3061,7 +5203,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>733</v>
+        <v>786</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -3069,7 +5211,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>733</v>
+        <v>787</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -3077,7 +5219,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>733</v>
+        <v>788</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -3085,7 +5227,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>733</v>
+        <v>789</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -3093,7 +5235,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>733</v>
+        <v>790</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -3101,7 +5243,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>733</v>
+        <v>791</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -3109,7 +5251,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>733</v>
+        <v>792</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -3117,7 +5259,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>733</v>
+        <v>793</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -3125,7 +5267,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>733</v>
+        <v>794</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -3133,7 +5275,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>733</v>
+        <v>795</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -3141,7 +5283,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>733</v>
+        <v>796</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -3149,7 +5291,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>733</v>
+        <v>797</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -3157,7 +5299,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>733</v>
+        <v>798</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -3165,7 +5307,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>733</v>
+        <v>799</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -3173,7 +5315,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>733</v>
+        <v>800</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -3181,7 +5323,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>733</v>
+        <v>801</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -3189,7 +5331,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>733</v>
+        <v>802</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -3197,7 +5339,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>733</v>
+        <v>803</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -3205,7 +5347,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>733</v>
+        <v>804</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -3213,7 +5355,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>733</v>
+        <v>805</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -3221,7 +5363,7 @@
         <v>76</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>733</v>
+        <v>806</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -3229,7 +5371,7 @@
         <v>77</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>733</v>
+        <v>807</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -3237,7 +5379,7 @@
         <v>78</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>733</v>
+        <v>808</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -3245,7 +5387,7 @@
         <v>79</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>733</v>
+        <v>809</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -3253,7 +5395,7 @@
         <v>80</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>733</v>
+        <v>810</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -3261,7 +5403,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>733</v>
+        <v>811</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -3269,7 +5411,7 @@
         <v>82</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>733</v>
+        <v>812</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -3277,7 +5419,7 @@
         <v>83</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>733</v>
+        <v>813</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -3285,7 +5427,7 @@
         <v>84</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>733</v>
+        <v>814</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -3293,7 +5435,7 @@
         <v>85</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>733</v>
+        <v>815</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -3301,7 +5443,7 @@
         <v>86</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>733</v>
+        <v>816</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -3309,7 +5451,7 @@
         <v>87</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>733</v>
+        <v>817</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -3317,7 +5459,7 @@
         <v>88</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>733</v>
+        <v>818</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -3325,7 +5467,7 @@
         <v>89</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>733</v>
+        <v>819</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -3333,7 +5475,7 @@
         <v>90</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>733</v>
+        <v>820</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -3341,7 +5483,7 @@
         <v>91</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>733</v>
+        <v>821</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -3349,7 +5491,7 @@
         <v>92</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>733</v>
+        <v>822</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -3357,7 +5499,7 @@
         <v>93</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>733</v>
+        <v>823</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -3365,7 +5507,7 @@
         <v>94</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>733</v>
+        <v>824</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -3373,7 +5515,7 @@
         <v>95</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>733</v>
+        <v>825</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -3381,7 +5523,7 @@
         <v>96</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>733</v>
+        <v>826</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -3389,7 +5531,7 @@
         <v>97</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>733</v>
+        <v>827</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -3397,7 +5539,7 @@
         <v>98</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>733</v>
+        <v>828</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -3405,7 +5547,7 @@
         <v>99</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>733</v>
+        <v>829</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -3413,7 +5555,7 @@
         <v>100</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>733</v>
+        <v>830</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -3421,7 +5563,7 @@
         <v>101</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>733</v>
+        <v>831</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -3429,7 +5571,7 @@
         <v>102</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>733</v>
+        <v>832</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -3437,7 +5579,7 @@
         <v>103</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>733</v>
+        <v>833</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -3445,7 +5587,7 @@
         <v>104</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>733</v>
+        <v>834</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -3453,7 +5595,7 @@
         <v>105</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>733</v>
+        <v>835</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -3461,7 +5603,7 @@
         <v>106</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>733</v>
+        <v>836</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -3469,7 +5611,7 @@
         <v>107</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>733</v>
+        <v>836</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -3477,7 +5619,7 @@
         <v>108</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>733</v>
+        <v>836</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -3485,7 +5627,7 @@
         <v>109</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>733</v>
+        <v>837</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -3493,7 +5635,7 @@
         <v>110</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>733</v>
+        <v>838</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -3501,7 +5643,7 @@
         <v>111</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>733</v>
+        <v>839</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -3509,7 +5651,7 @@
         <v>112</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>733</v>
+        <v>840</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -3517,7 +5659,7 @@
         <v>113</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>733</v>
+        <v>841</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -3525,7 +5667,7 @@
         <v>114</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>733</v>
+        <v>842</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -3533,7 +5675,7 @@
         <v>115</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>733</v>
+        <v>843</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -3541,7 +5683,7 @@
         <v>116</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>733</v>
+        <v>844</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -3549,7 +5691,7 @@
         <v>117</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>733</v>
+        <v>845</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -3557,7 +5699,7 @@
         <v>118</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>733</v>
+        <v>846</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -3565,7 +5707,7 @@
         <v>119</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>733</v>
+        <v>847</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -3573,7 +5715,7 @@
         <v>120</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>733</v>
+        <v>848</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -3581,7 +5723,7 @@
         <v>121</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>733</v>
+        <v>849</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -3589,7 +5731,7 @@
         <v>122</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>733</v>
+        <v>850</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -3597,7 +5739,7 @@
         <v>123</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>733</v>
+        <v>851</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -3605,7 +5747,7 @@
         <v>124</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>733</v>
+        <v>852</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -3613,7 +5755,7 @@
         <v>125</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>733</v>
+        <v>853</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -3621,7 +5763,7 @@
         <v>126</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>733</v>
+        <v>854</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -3629,7 +5771,7 @@
         <v>127</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>733</v>
+        <v>855</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -3637,7 +5779,7 @@
         <v>128</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>733</v>
+        <v>856</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -3645,7 +5787,7 @@
         <v>129</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>733</v>
+        <v>857</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -3653,7 +5795,7 @@
         <v>130</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>733</v>
+        <v>858</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -3661,7 +5803,7 @@
         <v>131</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>733</v>
+        <v>859</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -3669,7 +5811,7 @@
         <v>132</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>733</v>
+        <v>860</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -3677,7 +5819,7 @@
         <v>133</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>733</v>
+        <v>861</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -3685,7 +5827,7 @@
         <v>134</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>733</v>
+        <v>862</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -3693,7 +5835,7 @@
         <v>135</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>733</v>
+        <v>863</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -3701,7 +5843,7 @@
         <v>136</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>733</v>
+        <v>864</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -3709,7 +5851,7 @@
         <v>137</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>733</v>
+        <v>865</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -3717,7 +5859,7 @@
         <v>138</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>733</v>
+        <v>866</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -3725,7 +5867,7 @@
         <v>139</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>733</v>
+        <v>867</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -3733,7 +5875,7 @@
         <v>140</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>733</v>
+        <v>868</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -3741,7 +5883,7 @@
         <v>141</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>733</v>
+        <v>869</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -3749,7 +5891,7 @@
         <v>142</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>733</v>
+        <v>870</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -3757,7 +5899,7 @@
         <v>143</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>733</v>
+        <v>871</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -3765,7 +5907,7 @@
         <v>144</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>733</v>
+        <v>872</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -3773,7 +5915,7 @@
         <v>145</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>733</v>
+        <v>873</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -3781,7 +5923,7 @@
         <v>146</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>733</v>
+        <v>874</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -3789,7 +5931,7 @@
         <v>147</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>733</v>
+        <v>875</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -3797,7 +5939,7 @@
         <v>148</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>733</v>
+        <v>876</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -3805,7 +5947,7 @@
         <v>149</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>733</v>
+        <v>877</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -3813,7 +5955,7 @@
         <v>150</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>733</v>
+        <v>878</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -3821,7 +5963,7 @@
         <v>151</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>733</v>
+        <v>879</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -3829,7 +5971,7 @@
         <v>152</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>733</v>
+        <v>880</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -3837,7 +5979,7 @@
         <v>153</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>733</v>
+        <v>881</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -3845,7 +5987,7 @@
         <v>154</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>733</v>
+        <v>882</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -3853,7 +5995,7 @@
         <v>155</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>733</v>
+        <v>883</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -3861,7 +6003,7 @@
         <v>156</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>733</v>
+        <v>884</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -3869,7 +6011,7 @@
         <v>157</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>733</v>
+        <v>885</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -3877,7 +6019,7 @@
         <v>158</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>733</v>
+        <v>886</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -3885,7 +6027,7 @@
         <v>159</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>733</v>
+        <v>887</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -3893,7 +6035,7 @@
         <v>160</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>733</v>
+        <v>888</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -3901,7 +6043,7 @@
         <v>161</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>733</v>
+        <v>889</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -3909,7 +6051,7 @@
         <v>162</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>733</v>
+        <v>890</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -3917,7 +6059,7 @@
         <v>163</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>733</v>
+        <v>891</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -3925,7 +6067,7 @@
         <v>164</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>733</v>
+        <v>892</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -3933,7 +6075,7 @@
         <v>165</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>733</v>
+        <v>893</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -3941,7 +6083,7 @@
         <v>166</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>733</v>
+        <v>894</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -3949,7 +6091,7 @@
         <v>167</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>733</v>
+        <v>895</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -3957,7 +6099,7 @@
         <v>168</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>733</v>
+        <v>896</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -3965,7 +6107,7 @@
         <v>169</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>733</v>
+        <v>897</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -3973,7 +6115,7 @@
         <v>170</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>733</v>
+        <v>898</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -3981,7 +6123,7 @@
         <v>171</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>733</v>
+        <v>899</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -3989,7 +6131,7 @@
         <v>172</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>733</v>
+        <v>900</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -3997,7 +6139,7 @@
         <v>173</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>733</v>
+        <v>901</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -4005,7 +6147,7 @@
         <v>174</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>733</v>
+        <v>902</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -4013,7 +6155,7 @@
         <v>175</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>733</v>
+        <v>903</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -4021,7 +6163,7 @@
         <v>176</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>733</v>
+        <v>904</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -4029,7 +6171,7 @@
         <v>177</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>733</v>
+        <v>905</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -4037,7 +6179,7 @@
         <v>178</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>733</v>
+        <v>906</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -4045,7 +6187,7 @@
         <v>179</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>733</v>
+        <v>907</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -4053,7 +6195,7 @@
         <v>180</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>733</v>
+        <v>908</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -4061,7 +6203,7 @@
         <v>181</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>733</v>
+        <v>909</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -4069,7 +6211,7 @@
         <v>182</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>733</v>
+        <v>910</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -4077,7 +6219,7 @@
         <v>183</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>733</v>
+        <v>911</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -4085,7 +6227,7 @@
         <v>184</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>733</v>
+        <v>911</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -4093,7 +6235,7 @@
         <v>185</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>733</v>
+        <v>912</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -4101,7 +6243,7 @@
         <v>186</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>733</v>
+        <v>913</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -4109,7 +6251,7 @@
         <v>187</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>733</v>
+        <v>914</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -4117,7 +6259,7 @@
         <v>188</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>733</v>
+        <v>915</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -4125,7 +6267,7 @@
         <v>189</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>733</v>
+        <v>916</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -4133,7 +6275,7 @@
         <v>190</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>733</v>
+        <v>917</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -4141,7 +6283,7 @@
         <v>191</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>733</v>
+        <v>918</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -4149,7 +6291,7 @@
         <v>192</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>733</v>
+        <v>919</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -4157,7 +6299,7 @@
         <v>193</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>733</v>
+        <v>920</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -4165,7 +6307,7 @@
         <v>194</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>733</v>
+        <v>921</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -4173,7 +6315,7 @@
         <v>195</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>733</v>
+        <v>922</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -4181,7 +6323,7 @@
         <v>196</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>733</v>
+        <v>923</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -4189,7 +6331,7 @@
         <v>197</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>733</v>
+        <v>924</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -4197,7 +6339,7 @@
         <v>198</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>733</v>
+        <v>925</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -4205,7 +6347,7 @@
         <v>199</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>733</v>
+        <v>926</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -4213,7 +6355,7 @@
         <v>200</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>733</v>
+        <v>927</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -4221,7 +6363,7 @@
         <v>201</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>733</v>
+        <v>927</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -4229,7 +6371,7 @@
         <v>202</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>733</v>
+        <v>928</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -4237,7 +6379,7 @@
         <v>203</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>733</v>
+        <v>929</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -4245,7 +6387,7 @@
         <v>204</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>733</v>
+        <v>930</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -4253,7 +6395,7 @@
         <v>205</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>733</v>
+        <v>931</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -4261,7 +6403,7 @@
         <v>206</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>733</v>
+        <v>932</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -4269,7 +6411,7 @@
         <v>207</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>733</v>
+        <v>933</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -4277,7 +6419,7 @@
         <v>208</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>733</v>
+        <v>934</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -4285,7 +6427,7 @@
         <v>209</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>733</v>
+        <v>935</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -4293,7 +6435,7 @@
         <v>210</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>733</v>
+        <v>936</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -4301,7 +6443,7 @@
         <v>211</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>733</v>
+        <v>937</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -4309,7 +6451,7 @@
         <v>212</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>733</v>
+        <v>938</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -4317,7 +6459,7 @@
         <v>213</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>733</v>
+        <v>939</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -4325,7 +6467,7 @@
         <v>214</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>733</v>
+        <v>940</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
@@ -4333,7 +6475,7 @@
         <v>215</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>733</v>
+        <v>941</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
@@ -4341,7 +6483,7 @@
         <v>216</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>733</v>
+        <v>942</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
@@ -4349,7 +6491,7 @@
         <v>217</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>733</v>
+        <v>943</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
@@ -4357,7 +6499,7 @@
         <v>218</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>733</v>
+        <v>943</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
@@ -4365,7 +6507,7 @@
         <v>219</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>733</v>
+        <v>944</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
@@ -4373,7 +6515,7 @@
         <v>220</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>733</v>
+        <v>945</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
@@ -4381,7 +6523,7 @@
         <v>221</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>733</v>
+        <v>946</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
@@ -4389,7 +6531,7 @@
         <v>222</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>733</v>
+        <v>947</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
@@ -4397,7 +6539,7 @@
         <v>223</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>733</v>
+        <v>948</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
@@ -4405,7 +6547,7 @@
         <v>224</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>733</v>
+        <v>949</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
@@ -4413,7 +6555,7 @@
         <v>225</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>733</v>
+        <v>950</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
@@ -4421,7 +6563,7 @@
         <v>226</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>733</v>
+        <v>951</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
@@ -4429,7 +6571,7 @@
         <v>227</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>733</v>
+        <v>952</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
@@ -4437,7 +6579,7 @@
         <v>228</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>733</v>
+        <v>953</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
@@ -4445,7 +6587,7 @@
         <v>229</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>733</v>
+        <v>954</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
@@ -4453,7 +6595,7 @@
         <v>230</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>733</v>
+        <v>955</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
@@ -4461,7 +6603,7 @@
         <v>231</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>733</v>
+        <v>956</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
@@ -4469,7 +6611,7 @@
         <v>232</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>733</v>
+        <v>957</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
@@ -4477,7 +6619,7 @@
         <v>233</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>733</v>
+        <v>958</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
@@ -4485,7 +6627,7 @@
         <v>234</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>733</v>
+        <v>959</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
@@ -4493,7 +6635,7 @@
         <v>235</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>733</v>
+        <v>960</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
@@ -4501,7 +6643,7 @@
         <v>236</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>733</v>
+        <v>961</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
@@ -4509,7 +6651,7 @@
         <v>237</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>733</v>
+        <v>962</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
@@ -4517,7 +6659,7 @@
         <v>238</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>733</v>
+        <v>963</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
@@ -4525,7 +6667,7 @@
         <v>239</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>733</v>
+        <v>964</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
@@ -4533,7 +6675,7 @@
         <v>240</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>733</v>
+        <v>965</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
@@ -4541,7 +6683,7 @@
         <v>241</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>733</v>
+        <v>966</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
@@ -4549,7 +6691,7 @@
         <v>242</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>733</v>
+        <v>967</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
@@ -4557,7 +6699,7 @@
         <v>243</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>733</v>
+        <v>968</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
@@ -4565,7 +6707,7 @@
         <v>244</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>733</v>
+        <v>969</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
@@ -4573,7 +6715,7 @@
         <v>245</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>733</v>
+        <v>970</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
@@ -4581,7 +6723,7 @@
         <v>246</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>733</v>
+        <v>971</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
@@ -4589,7 +6731,7 @@
         <v>247</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>733</v>
+        <v>972</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
@@ -4597,7 +6739,7 @@
         <v>248</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>733</v>
+        <v>973</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
@@ -4605,7 +6747,7 @@
         <v>249</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>733</v>
+        <v>974</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
@@ -4613,7 +6755,7 @@
         <v>250</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>733</v>
+        <v>975</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
@@ -4621,7 +6763,7 @@
         <v>251</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>733</v>
+        <v>976</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
@@ -4629,7 +6771,7 @@
         <v>252</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>733</v>
+        <v>977</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
@@ -4637,7 +6779,7 @@
         <v>253</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>733</v>
+        <v>978</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
@@ -4645,7 +6787,7 @@
         <v>254</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>733</v>
+        <v>979</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
@@ -4653,7 +6795,7 @@
         <v>255</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>733</v>
+        <v>980</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
@@ -4661,7 +6803,7 @@
         <v>256</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>733</v>
+        <v>981</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
@@ -4669,7 +6811,7 @@
         <v>257</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>733</v>
+        <v>982</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
@@ -4677,7 +6819,7 @@
         <v>258</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>733</v>
+        <v>983</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
@@ -4685,7 +6827,7 @@
         <v>259</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>733</v>
+        <v>984</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
@@ -4693,7 +6835,7 @@
         <v>260</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>733</v>
+        <v>985</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
@@ -4701,7 +6843,7 @@
         <v>261</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>733</v>
+        <v>986</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
@@ -4709,7 +6851,7 @@
         <v>262</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>733</v>
+        <v>987</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
@@ -4717,7 +6859,7 @@
         <v>263</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>733</v>
+        <v>988</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
@@ -4725,7 +6867,7 @@
         <v>264</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>733</v>
+        <v>981</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
@@ -4733,7 +6875,7 @@
         <v>265</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>733</v>
+        <v>989</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
@@ -4741,7 +6883,7 @@
         <v>266</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>733</v>
+        <v>990</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
@@ -4749,7 +6891,7 @@
         <v>267</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>733</v>
+        <v>991</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
@@ -4757,7 +6899,7 @@
         <v>268</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>733</v>
+        <v>992</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
@@ -4765,7 +6907,7 @@
         <v>269</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>733</v>
+        <v>993</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
@@ -4773,7 +6915,7 @@
         <v>270</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>733</v>
+        <v>994</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
@@ -4781,7 +6923,7 @@
         <v>271</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>733</v>
+        <v>995</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
@@ -4789,7 +6931,7 @@
         <v>272</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>733</v>
+        <v>996</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
@@ -4797,7 +6939,7 @@
         <v>273</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>733</v>
+        <v>997</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
@@ -4805,7 +6947,7 @@
         <v>274</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>733</v>
+        <v>997</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
@@ -4813,7 +6955,7 @@
         <v>275</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>733</v>
+        <v>998</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
@@ -4821,7 +6963,7 @@
         <v>276</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>733</v>
+        <v>999</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
@@ -4829,7 +6971,7 @@
         <v>277</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>733</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
@@ -4837,7 +6979,7 @@
         <v>278</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>733</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
@@ -4845,7 +6987,7 @@
         <v>279</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>733</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
@@ -4853,7 +6995,7 @@
         <v>280</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>733</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
@@ -4861,7 +7003,7 @@
         <v>281</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>733</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
@@ -4869,7 +7011,7 @@
         <v>282</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>733</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
@@ -4877,7 +7019,7 @@
         <v>283</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>733</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
@@ -4885,7 +7027,7 @@
         <v>284</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>733</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
@@ -4893,7 +7035,7 @@
         <v>285</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>733</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
@@ -4901,7 +7043,7 @@
         <v>286</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>733</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
@@ -4909,7 +7051,7 @@
         <v>287</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>733</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
@@ -4917,7 +7059,7 @@
         <v>288</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>733</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
@@ -4925,7 +7067,7 @@
         <v>289</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>733</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
@@ -4933,7 +7075,7 @@
         <v>290</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>733</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
@@ -4941,7 +7083,7 @@
         <v>291</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>733</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
@@ -4949,7 +7091,7 @@
         <v>292</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>733</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
@@ -4957,7 +7099,7 @@
         <v>293</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>733</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
@@ -4965,7 +7107,7 @@
         <v>294</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>733</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
@@ -4973,7 +7115,7 @@
         <v>295</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>733</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
@@ -4981,7 +7123,7 @@
         <v>296</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>733</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
@@ -4989,7 +7131,7 @@
         <v>297</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>733</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
@@ -4997,7 +7139,7 @@
         <v>298</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>733</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
@@ -5005,7 +7147,7 @@
         <v>299</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>733</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
@@ -5013,7 +7155,7 @@
         <v>300</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>733</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
@@ -5021,7 +7163,7 @@
         <v>301</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>733</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
@@ -5029,7 +7171,7 @@
         <v>302</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>733</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
@@ -5037,7 +7179,7 @@
         <v>303</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>733</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
@@ -5045,7 +7187,7 @@
         <v>304</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>733</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
@@ -5053,7 +7195,7 @@
         <v>305</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>733</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
@@ -5061,7 +7203,7 @@
         <v>306</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>733</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
@@ -5069,7 +7211,7 @@
         <v>307</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>733</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
@@ -5077,15 +7219,15 @@
         <v>308</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>733</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>309</v>
       </c>
-      <c r="B309" s="2" t="s">
-        <v>733</v>
+      <c r="B309" s="2" t="e">
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
@@ -5093,7 +7235,7 @@
         <v>310</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>733</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
@@ -5101,7 +7243,7 @@
         <v>311</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>733</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
@@ -5109,7 +7251,7 @@
         <v>312</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>733</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
@@ -5117,7 +7259,7 @@
         <v>313</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>733</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
@@ -5125,7 +7267,7 @@
         <v>314</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>733</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
@@ -5133,7 +7275,7 @@
         <v>315</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>733</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
@@ -5141,7 +7283,7 @@
         <v>316</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>733</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
@@ -5149,7 +7291,7 @@
         <v>317</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>733</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
@@ -5157,7 +7299,7 @@
         <v>318</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>733</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
@@ -5165,7 +7307,7 @@
         <v>319</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>733</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
@@ -5173,7 +7315,7 @@
         <v>320</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>733</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
@@ -5181,7 +7323,7 @@
         <v>321</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>733</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
@@ -5189,7 +7331,7 @@
         <v>322</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>733</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
@@ -5197,7 +7339,7 @@
         <v>323</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>733</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
@@ -5205,7 +7347,7 @@
         <v>324</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>733</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
@@ -5213,7 +7355,7 @@
         <v>325</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>733</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
@@ -5221,7 +7363,7 @@
         <v>326</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>733</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
@@ -5229,7 +7371,7 @@
         <v>327</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>733</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
@@ -5237,7 +7379,7 @@
         <v>328</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>733</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
@@ -5245,7 +7387,7 @@
         <v>329</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>733</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
@@ -5253,7 +7395,7 @@
         <v>330</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>733</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
@@ -5261,7 +7403,7 @@
         <v>331</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>733</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
@@ -5269,7 +7411,7 @@
         <v>332</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>733</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
@@ -5277,7 +7419,7 @@
         <v>333</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>733</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
@@ -5285,7 +7427,7 @@
         <v>334</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>733</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
@@ -5293,7 +7435,7 @@
         <v>335</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>733</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
@@ -5301,7 +7443,7 @@
         <v>336</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>733</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
@@ -5309,7 +7451,7 @@
         <v>337</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>733</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
@@ -5317,7 +7459,7 @@
         <v>338</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>733</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
@@ -5325,7 +7467,7 @@
         <v>339</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>733</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
@@ -5333,7 +7475,7 @@
         <v>340</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>733</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
@@ -5341,7 +7483,7 @@
         <v>341</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>733</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
@@ -5349,7 +7491,7 @@
         <v>342</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>733</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
@@ -5357,7 +7499,7 @@
         <v>343</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>733</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
@@ -5365,7 +7507,7 @@
         <v>344</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>733</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
@@ -5373,7 +7515,7 @@
         <v>345</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>733</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
@@ -5381,7 +7523,7 @@
         <v>346</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>733</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
@@ -5389,7 +7531,7 @@
         <v>347</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>733</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
@@ -5397,7 +7539,7 @@
         <v>348</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>733</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
@@ -5405,7 +7547,7 @@
         <v>349</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>733</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
@@ -5413,7 +7555,7 @@
         <v>350</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>733</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
@@ -5421,7 +7563,7 @@
         <v>351</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>733</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
@@ -5429,7 +7571,7 @@
         <v>352</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>733</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
@@ -5437,7 +7579,7 @@
         <v>353</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>733</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
@@ -5445,7 +7587,7 @@
         <v>354</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>733</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
@@ -5453,7 +7595,7 @@
         <v>355</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>733</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
@@ -5461,7 +7603,7 @@
         <v>356</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>733</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
@@ -5469,7 +7611,7 @@
         <v>357</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>733</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
@@ -5477,7 +7619,7 @@
         <v>358</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>733</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
@@ -5485,7 +7627,7 @@
         <v>359</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>733</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
@@ -5493,7 +7635,7 @@
         <v>360</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>733</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
@@ -5501,7 +7643,7 @@
         <v>361</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>733</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
@@ -5509,7 +7651,7 @@
         <v>362</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>733</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
@@ -5517,7 +7659,7 @@
         <v>363</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>733</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
@@ -5525,7 +7667,7 @@
         <v>364</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>733</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
@@ -5533,7 +7675,7 @@
         <v>365</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>733</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
@@ -5541,7 +7683,7 @@
         <v>366</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>733</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
@@ -5549,7 +7691,7 @@
         <v>367</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>733</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
@@ -5557,7 +7699,7 @@
         <v>368</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>733</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
@@ -5565,7 +7707,7 @@
         <v>369</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>733</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
@@ -5573,7 +7715,7 @@
         <v>370</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>733</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
@@ -5581,7 +7723,7 @@
         <v>371</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>733</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
@@ -5589,7 +7731,7 @@
         <v>372</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>733</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
@@ -5597,7 +7739,7 @@
         <v>373</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>733</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
@@ -5605,7 +7747,7 @@
         <v>374</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>733</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
@@ -5613,7 +7755,7 @@
         <v>375</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>733</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
@@ -5621,7 +7763,7 @@
         <v>376</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>733</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
@@ -5629,7 +7771,7 @@
         <v>377</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>733</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
@@ -5637,7 +7779,7 @@
         <v>378</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>733</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
@@ -5645,7 +7787,7 @@
         <v>379</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>733</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
@@ -5653,7 +7795,7 @@
         <v>380</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>733</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
@@ -5661,7 +7803,7 @@
         <v>381</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>733</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
@@ -5669,7 +7811,7 @@
         <v>382</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>733</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
@@ -5677,7 +7819,7 @@
         <v>383</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>733</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
@@ -5685,7 +7827,7 @@
         <v>384</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>733</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
@@ -5693,7 +7835,7 @@
         <v>385</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>733</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
@@ -5701,7 +7843,7 @@
         <v>386</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>733</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
@@ -5709,7 +7851,7 @@
         <v>387</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>733</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
@@ -5717,7 +7859,7 @@
         <v>388</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>733</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
@@ -5725,7 +7867,7 @@
         <v>389</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>733</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
@@ -5733,7 +7875,7 @@
         <v>390</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>733</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
@@ -5741,7 +7883,7 @@
         <v>391</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>733</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
@@ -5749,7 +7891,7 @@
         <v>392</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>733</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
@@ -5757,7 +7899,7 @@
         <v>393</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>733</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
@@ -5765,7 +7907,7 @@
         <v>394</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>733</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
@@ -5773,7 +7915,7 @@
         <v>395</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>733</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
@@ -5781,7 +7923,7 @@
         <v>396</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>733</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
@@ -5789,7 +7931,7 @@
         <v>397</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>733</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
@@ -5797,7 +7939,7 @@
         <v>398</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>733</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
@@ -5805,7 +7947,7 @@
         <v>399</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>733</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
@@ -5813,7 +7955,7 @@
         <v>400</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>733</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
@@ -5821,7 +7963,7 @@
         <v>401</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>733</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
@@ -5829,7 +7971,7 @@
         <v>402</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>733</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
@@ -5837,7 +7979,7 @@
         <v>403</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>733</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
@@ -5845,7 +7987,7 @@
         <v>404</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>733</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
@@ -5853,7 +7995,7 @@
         <v>405</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>733</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
@@ -5861,7 +8003,7 @@
         <v>406</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>733</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
@@ -5869,7 +8011,7 @@
         <v>407</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>733</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
@@ -5877,7 +8019,7 @@
         <v>408</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>733</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
@@ -5885,7 +8027,7 @@
         <v>409</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>733</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
@@ -5893,7 +8035,7 @@
         <v>410</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>733</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
@@ -5901,7 +8043,7 @@
         <v>411</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>733</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
@@ -5909,7 +8051,7 @@
         <v>412</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>733</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
@@ -5917,7 +8059,7 @@
         <v>413</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>733</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
@@ -5925,7 +8067,7 @@
         <v>414</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>733</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
@@ -5933,7 +8075,7 @@
         <v>415</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>733</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
@@ -5941,7 +8083,7 @@
         <v>416</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>733</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
@@ -5949,7 +8091,7 @@
         <v>417</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>733</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
@@ -5957,7 +8099,7 @@
         <v>418</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>733</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
@@ -5965,7 +8107,7 @@
         <v>419</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>733</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
@@ -5973,7 +8115,7 @@
         <v>420</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>733</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
@@ -5981,7 +8123,7 @@
         <v>421</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>733</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
@@ -5989,7 +8131,7 @@
         <v>422</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>733</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
@@ -5997,7 +8139,7 @@
         <v>423</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>733</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
@@ -6005,7 +8147,7 @@
         <v>424</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>733</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
@@ -6013,7 +8155,7 @@
         <v>425</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>733</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
@@ -6021,7 +8163,7 @@
         <v>426</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>733</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
@@ -6029,7 +8171,7 @@
         <v>427</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>733</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
@@ -6037,7 +8179,7 @@
         <v>428</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>733</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
@@ -6045,7 +8187,7 @@
         <v>429</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>733</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
@@ -6053,7 +8195,7 @@
         <v>430</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>733</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
@@ -6061,7 +8203,7 @@
         <v>431</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>733</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
@@ -6069,7 +8211,7 @@
         <v>432</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>733</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
@@ -6077,7 +8219,7 @@
         <v>433</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>733</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
@@ -6085,7 +8227,7 @@
         <v>434</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>733</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
@@ -6093,7 +8235,7 @@
         <v>435</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>733</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
@@ -6101,7 +8243,7 @@
         <v>436</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>733</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
@@ -6109,7 +8251,7 @@
         <v>437</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>733</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
@@ -6117,7 +8259,7 @@
         <v>438</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>733</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
@@ -6125,7 +8267,7 @@
         <v>439</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>733</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
@@ -6133,7 +8275,7 @@
         <v>440</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>733</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
@@ -6141,7 +8283,7 @@
         <v>441</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>733</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
@@ -6149,7 +8291,7 @@
         <v>442</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>733</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
@@ -6157,7 +8299,7 @@
         <v>443</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>733</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
@@ -6165,7 +8307,7 @@
         <v>444</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>733</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
@@ -6173,7 +8315,7 @@
         <v>445</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>733</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
@@ -6181,7 +8323,7 @@
         <v>446</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>733</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
@@ -6189,7 +8331,7 @@
         <v>447</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>733</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
@@ -6197,7 +8339,7 @@
         <v>448</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>733</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
@@ -6205,7 +8347,7 @@
         <v>449</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>733</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
@@ -6213,7 +8355,7 @@
         <v>450</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>733</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
@@ -6221,7 +8363,7 @@
         <v>451</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>733</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
@@ -6229,7 +8371,7 @@
         <v>452</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>733</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
@@ -6237,7 +8379,7 @@
         <v>453</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>733</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
@@ -6245,7 +8387,7 @@
         <v>454</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>733</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
@@ -6253,7 +8395,7 @@
         <v>455</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>733</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
@@ -6261,7 +8403,7 @@
         <v>456</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>733</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
@@ -6269,7 +8411,7 @@
         <v>457</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>733</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
@@ -6277,7 +8419,7 @@
         <v>458</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>733</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
@@ -6285,7 +8427,7 @@
         <v>459</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>733</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
@@ -6293,7 +8435,7 @@
         <v>460</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>733</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
@@ -6301,7 +8443,7 @@
         <v>461</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>733</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
@@ -6309,7 +8451,7 @@
         <v>462</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>733</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
@@ -6317,7 +8459,7 @@
         <v>463</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>733</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
@@ -6325,7 +8467,7 @@
         <v>464</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>733</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
@@ -6333,7 +8475,7 @@
         <v>465</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>733</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
@@ -6341,7 +8483,7 @@
         <v>466</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>733</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
@@ -6349,7 +8491,7 @@
         <v>467</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>733</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
@@ -6357,7 +8499,7 @@
         <v>468</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>733</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
@@ -6365,7 +8507,7 @@
         <v>469</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>733</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
@@ -6373,7 +8515,7 @@
         <v>470</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>733</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
@@ -6381,7 +8523,7 @@
         <v>471</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>733</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
@@ -6389,7 +8531,7 @@
         <v>472</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>733</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
@@ -6397,7 +8539,7 @@
         <v>473</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>733</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
@@ -6405,7 +8547,7 @@
         <v>474</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>733</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
@@ -6413,7 +8555,7 @@
         <v>475</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>733</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
@@ -6421,7 +8563,7 @@
         <v>476</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>733</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
@@ -6429,7 +8571,7 @@
         <v>477</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>733</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
@@ -6437,7 +8579,7 @@
         <v>478</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>733</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
@@ -6445,7 +8587,7 @@
         <v>479</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>733</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
@@ -6453,7 +8595,7 @@
         <v>480</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>733</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
@@ -6461,7 +8603,7 @@
         <v>481</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>733</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
@@ -6469,7 +8611,7 @@
         <v>482</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>733</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
@@ -6477,7 +8619,7 @@
         <v>483</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>733</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
@@ -6485,7 +8627,7 @@
         <v>484</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>733</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
@@ -6493,7 +8635,7 @@
         <v>485</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>733</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
@@ -6501,7 +8643,7 @@
         <v>486</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>733</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
@@ -6509,7 +8651,7 @@
         <v>487</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>733</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
@@ -6517,7 +8659,7 @@
         <v>488</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>733</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
@@ -6525,7 +8667,7 @@
         <v>489</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>733</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
@@ -6533,7 +8675,7 @@
         <v>490</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>733</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
@@ -6541,7 +8683,7 @@
         <v>491</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>733</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
@@ -6549,7 +8691,7 @@
         <v>492</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>733</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
@@ -6557,7 +8699,7 @@
         <v>493</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>733</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
@@ -6565,7 +8707,7 @@
         <v>494</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>733</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
@@ -6573,7 +8715,7 @@
         <v>495</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>733</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
@@ -6581,7 +8723,7 @@
         <v>496</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>733</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
@@ -6589,7 +8731,7 @@
         <v>497</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>733</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
@@ -6597,7 +8739,7 @@
         <v>498</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>733</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
@@ -6605,7 +8747,7 @@
         <v>499</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>733</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
@@ -6613,7 +8755,7 @@
         <v>500</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>733</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
@@ -6621,7 +8763,7 @@
         <v>501</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>733</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
@@ -6629,7 +8771,7 @@
         <v>502</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>733</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
@@ -6637,7 +8779,7 @@
         <v>503</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>733</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
@@ -6645,7 +8787,7 @@
         <v>504</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>733</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
@@ -6653,7 +8795,7 @@
         <v>505</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>733</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
@@ -6661,7 +8803,7 @@
         <v>506</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>733</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
@@ -6669,7 +8811,7 @@
         <v>507</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>733</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
@@ -6677,7 +8819,7 @@
         <v>508</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>733</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
@@ -6685,7 +8827,7 @@
         <v>509</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>733</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
@@ -6693,7 +8835,7 @@
         <v>510</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>733</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
@@ -6701,7 +8843,7 @@
         <v>511</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>733</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
@@ -6709,7 +8851,7 @@
         <v>512</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>733</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
@@ -6717,7 +8859,7 @@
         <v>513</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>733</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
@@ -6725,7 +8867,7 @@
         <v>514</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>733</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
@@ -6733,7 +8875,7 @@
         <v>515</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>733</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
@@ -6741,7 +8883,7 @@
         <v>516</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>733</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
@@ -6749,7 +8891,7 @@
         <v>517</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>733</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
@@ -6757,7 +8899,7 @@
         <v>518</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>733</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
@@ -6765,7 +8907,7 @@
         <v>519</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>733</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
@@ -6773,7 +8915,7 @@
         <v>520</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>733</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
@@ -6781,7 +8923,7 @@
         <v>521</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>733</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
@@ -6789,7 +8931,7 @@
         <v>522</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>733</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
@@ -6797,7 +8939,7 @@
         <v>523</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>733</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
@@ -6805,7 +8947,7 @@
         <v>524</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>733</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
@@ -6813,7 +8955,7 @@
         <v>525</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>733</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
@@ -6821,7 +8963,7 @@
         <v>526</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>733</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
@@ -6829,7 +8971,7 @@
         <v>527</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>733</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
@@ -6837,7 +8979,7 @@
         <v>528</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>733</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
@@ -6845,7 +8987,7 @@
         <v>529</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>733</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
@@ -6853,7 +8995,7 @@
         <v>530</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>733</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
@@ -6861,7 +9003,7 @@
         <v>531</v>
       </c>
       <c r="B531" s="2" t="s">
-        <v>733</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
@@ -6869,7 +9011,7 @@
         <v>532</v>
       </c>
       <c r="B532" s="2" t="s">
-        <v>733</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
@@ -6877,7 +9019,7 @@
         <v>533</v>
       </c>
       <c r="B533" s="2" t="s">
-        <v>733</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
@@ -6885,7 +9027,7 @@
         <v>534</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>733</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
@@ -6893,7 +9035,7 @@
         <v>535</v>
       </c>
       <c r="B535" s="2" t="s">
-        <v>733</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
@@ -6901,7 +9043,7 @@
         <v>536</v>
       </c>
       <c r="B536" s="2" t="s">
-        <v>733</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
@@ -6909,7 +9051,7 @@
         <v>537</v>
       </c>
       <c r="B537" s="2" t="s">
-        <v>733</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
@@ -6917,7 +9059,7 @@
         <v>538</v>
       </c>
       <c r="B538" s="2" t="s">
-        <v>733</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
@@ -6925,7 +9067,7 @@
         <v>539</v>
       </c>
       <c r="B539" s="2" t="s">
-        <v>733</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
@@ -6933,7 +9075,7 @@
         <v>540</v>
       </c>
       <c r="B540" s="2" t="s">
-        <v>733</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
@@ -6941,7 +9083,7 @@
         <v>541</v>
       </c>
       <c r="B541" s="2" t="s">
-        <v>733</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
@@ -6949,7 +9091,7 @@
         <v>542</v>
       </c>
       <c r="B542" s="2" t="s">
-        <v>733</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.25">
@@ -6957,7 +9099,7 @@
         <v>543</v>
       </c>
       <c r="B543" s="2" t="s">
-        <v>733</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.25">
@@ -6965,7 +9107,7 @@
         <v>544</v>
       </c>
       <c r="B544" s="2" t="s">
-        <v>733</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.25">
@@ -6973,7 +9115,7 @@
         <v>545</v>
       </c>
       <c r="B545" s="2" t="s">
-        <v>733</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
@@ -6981,7 +9123,7 @@
         <v>546</v>
       </c>
       <c r="B546" s="2" t="s">
-        <v>733</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
@@ -6989,7 +9131,7 @@
         <v>547</v>
       </c>
       <c r="B547" s="2" t="s">
-        <v>733</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
@@ -6997,7 +9139,7 @@
         <v>548</v>
       </c>
       <c r="B548" s="2" t="s">
-        <v>733</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
@@ -7005,7 +9147,7 @@
         <v>549</v>
       </c>
       <c r="B549" s="2" t="s">
-        <v>733</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.25">
@@ -7013,7 +9155,7 @@
         <v>550</v>
       </c>
       <c r="B550" s="2" t="s">
-        <v>733</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.25">
@@ -7021,7 +9163,7 @@
         <v>551</v>
       </c>
       <c r="B551" s="2" t="s">
-        <v>733</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.25">
@@ -7029,7 +9171,7 @@
         <v>552</v>
       </c>
       <c r="B552" s="2" t="s">
-        <v>733</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.25">
@@ -7037,7 +9179,7 @@
         <v>553</v>
       </c>
       <c r="B553" s="2" t="s">
-        <v>733</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
@@ -7045,7 +9187,7 @@
         <v>554</v>
       </c>
       <c r="B554" s="2" t="s">
-        <v>733</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
@@ -7053,7 +9195,7 @@
         <v>555</v>
       </c>
       <c r="B555" s="2" t="s">
-        <v>733</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
@@ -7061,7 +9203,7 @@
         <v>556</v>
       </c>
       <c r="B556" s="2" t="s">
-        <v>733</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
@@ -7069,7 +9211,7 @@
         <v>557</v>
       </c>
       <c r="B557" s="2" t="s">
-        <v>733</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
@@ -7077,7 +9219,7 @@
         <v>558</v>
       </c>
       <c r="B558" s="2" t="s">
-        <v>733</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
@@ -7085,7 +9227,7 @@
         <v>559</v>
       </c>
       <c r="B559" s="2" t="s">
-        <v>733</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.25">
@@ -7093,7 +9235,7 @@
         <v>560</v>
       </c>
       <c r="B560" s="2" t="s">
-        <v>733</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.25">
@@ -7101,7 +9243,7 @@
         <v>561</v>
       </c>
       <c r="B561" s="2" t="s">
-        <v>733</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.25">
@@ -7109,7 +9251,7 @@
         <v>562</v>
       </c>
       <c r="B562" s="2" t="s">
-        <v>733</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.25">
@@ -7117,7 +9259,7 @@
         <v>563</v>
       </c>
       <c r="B563" s="2" t="s">
-        <v>733</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.25">
@@ -7125,7 +9267,7 @@
         <v>564</v>
       </c>
       <c r="B564" s="2" t="s">
-        <v>733</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.25">
@@ -7133,7 +9275,7 @@
         <v>565</v>
       </c>
       <c r="B565" s="2" t="s">
-        <v>733</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.25">
@@ -7141,7 +9283,7 @@
         <v>566</v>
       </c>
       <c r="B566" s="2" t="s">
-        <v>733</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.25">
@@ -7149,7 +9291,7 @@
         <v>567</v>
       </c>
       <c r="B567" s="2" t="s">
-        <v>733</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.25">
@@ -7157,7 +9299,7 @@
         <v>568</v>
       </c>
       <c r="B568" s="2" t="s">
-        <v>733</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.25">
@@ -7165,7 +9307,7 @@
         <v>569</v>
       </c>
       <c r="B569" s="2" t="s">
-        <v>733</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.25">
@@ -7173,7 +9315,7 @@
         <v>570</v>
       </c>
       <c r="B570" s="2" t="s">
-        <v>733</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.25">
@@ -7181,7 +9323,7 @@
         <v>571</v>
       </c>
       <c r="B571" s="2" t="s">
-        <v>733</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.25">
@@ -7189,7 +9331,7 @@
         <v>572</v>
       </c>
       <c r="B572" s="2" t="s">
-        <v>733</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.25">
@@ -7197,7 +9339,7 @@
         <v>573</v>
       </c>
       <c r="B573" s="2" t="s">
-        <v>733</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.25">
@@ -7205,7 +9347,7 @@
         <v>574</v>
       </c>
       <c r="B574" s="2" t="s">
-        <v>733</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.25">
@@ -7213,7 +9355,7 @@
         <v>575</v>
       </c>
       <c r="B575" s="2" t="s">
-        <v>733</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.25">
@@ -7221,7 +9363,7 @@
         <v>576</v>
       </c>
       <c r="B576" s="2" t="s">
-        <v>733</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.25">
@@ -7229,7 +9371,7 @@
         <v>577</v>
       </c>
       <c r="B577" s="2" t="s">
-        <v>733</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.25">
@@ -7237,7 +9379,7 @@
         <v>578</v>
       </c>
       <c r="B578" s="2" t="s">
-        <v>733</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.25">
@@ -7245,7 +9387,7 @@
         <v>579</v>
       </c>
       <c r="B579" s="2" t="s">
-        <v>733</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.25">
@@ -7253,7 +9395,7 @@
         <v>580</v>
       </c>
       <c r="B580" s="2" t="s">
-        <v>733</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.25">
@@ -7261,7 +9403,7 @@
         <v>581</v>
       </c>
       <c r="B581" s="2" t="s">
-        <v>733</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.25">
@@ -7269,7 +9411,7 @@
         <v>582</v>
       </c>
       <c r="B582" s="2" t="s">
-        <v>733</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.25">
@@ -7277,7 +9419,7 @@
         <v>583</v>
       </c>
       <c r="B583" s="2" t="s">
-        <v>733</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.25">
@@ -7285,7 +9427,7 @@
         <v>584</v>
       </c>
       <c r="B584" s="2" t="s">
-        <v>733</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.25">
@@ -7293,7 +9435,7 @@
         <v>585</v>
       </c>
       <c r="B585" s="2" t="s">
-        <v>733</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.25">
@@ -7301,7 +9443,7 @@
         <v>586</v>
       </c>
       <c r="B586" s="2" t="s">
-        <v>733</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.25">
@@ -7309,7 +9451,7 @@
         <v>587</v>
       </c>
       <c r="B587" s="2" t="s">
-        <v>733</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.25">
@@ -7317,7 +9459,7 @@
         <v>588</v>
       </c>
       <c r="B588" s="2" t="s">
-        <v>733</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.25">
@@ -7325,7 +9467,7 @@
         <v>589</v>
       </c>
       <c r="B589" s="2" t="s">
-        <v>733</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.25">
@@ -7333,7 +9475,7 @@
         <v>590</v>
       </c>
       <c r="B590" s="2" t="s">
-        <v>733</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.25">
@@ -7341,7 +9483,7 @@
         <v>591</v>
       </c>
       <c r="B591" s="2" t="s">
-        <v>733</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.25">
@@ -7349,7 +9491,7 @@
         <v>592</v>
       </c>
       <c r="B592" s="2" t="s">
-        <v>733</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.25">
@@ -7357,7 +9499,7 @@
         <v>593</v>
       </c>
       <c r="B593" s="2" t="s">
-        <v>733</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.25">
@@ -7365,7 +9507,7 @@
         <v>594</v>
       </c>
       <c r="B594" s="2" t="s">
-        <v>733</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.25">
@@ -7373,7 +9515,7 @@
         <v>595</v>
       </c>
       <c r="B595" s="2" t="s">
-        <v>733</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.25">
@@ -7381,7 +9523,7 @@
         <v>596</v>
       </c>
       <c r="B596" s="2" t="s">
-        <v>733</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.25">
@@ -7389,7 +9531,7 @@
         <v>597</v>
       </c>
       <c r="B597" s="2" t="s">
-        <v>733</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.25">
@@ -7397,7 +9539,7 @@
         <v>598</v>
       </c>
       <c r="B598" s="2" t="s">
-        <v>733</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.25">
@@ -7405,7 +9547,7 @@
         <v>599</v>
       </c>
       <c r="B599" s="2" t="s">
-        <v>733</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.25">
@@ -7413,7 +9555,7 @@
         <v>600</v>
       </c>
       <c r="B600" s="2" t="s">
-        <v>733</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.25">
@@ -7421,7 +9563,7 @@
         <v>601</v>
       </c>
       <c r="B601" s="2" t="s">
-        <v>733</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.25">
@@ -7429,7 +9571,7 @@
         <v>602</v>
       </c>
       <c r="B602" s="2" t="s">
-        <v>733</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.25">
@@ -7437,7 +9579,7 @@
         <v>603</v>
       </c>
       <c r="B603" s="2" t="s">
-        <v>733</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.25">
@@ -7445,7 +9587,7 @@
         <v>604</v>
       </c>
       <c r="B604" s="2" t="s">
-        <v>733</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.25">
@@ -7453,7 +9595,7 @@
         <v>605</v>
       </c>
       <c r="B605" s="2" t="s">
-        <v>733</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.25">
@@ -7461,7 +9603,7 @@
         <v>606</v>
       </c>
       <c r="B606" s="2" t="s">
-        <v>733</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.25">
@@ -7469,7 +9611,7 @@
         <v>607</v>
       </c>
       <c r="B607" s="2" t="s">
-        <v>733</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.25">
@@ -7477,7 +9619,7 @@
         <v>608</v>
       </c>
       <c r="B608" s="2" t="s">
-        <v>733</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.25">
@@ -7485,7 +9627,7 @@
         <v>609</v>
       </c>
       <c r="B609" s="2" t="s">
-        <v>733</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.25">
@@ -7493,7 +9635,7 @@
         <v>610</v>
       </c>
       <c r="B610" s="2" t="s">
-        <v>733</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.25">
@@ -7501,7 +9643,7 @@
         <v>611</v>
       </c>
       <c r="B611" s="2" t="s">
-        <v>733</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.25">
@@ -7509,7 +9651,7 @@
         <v>612</v>
       </c>
       <c r="B612" s="2" t="s">
-        <v>733</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.25">
@@ -7517,7 +9659,7 @@
         <v>613</v>
       </c>
       <c r="B613" s="2" t="s">
-        <v>733</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.25">
@@ -7525,7 +9667,7 @@
         <v>614</v>
       </c>
       <c r="B614" s="2" t="s">
-        <v>733</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.25">
@@ -7533,7 +9675,7 @@
         <v>615</v>
       </c>
       <c r="B615" s="2" t="s">
-        <v>733</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.25">
@@ -7541,7 +9683,7 @@
         <v>616</v>
       </c>
       <c r="B616" s="2" t="s">
-        <v>733</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.25">
@@ -7549,7 +9691,7 @@
         <v>617</v>
       </c>
       <c r="B617" s="2" t="s">
-        <v>733</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.25">
@@ -7557,7 +9699,7 @@
         <v>618</v>
       </c>
       <c r="B618" s="2" t="s">
-        <v>733</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.25">
@@ -7565,7 +9707,7 @@
         <v>619</v>
       </c>
       <c r="B619" s="2" t="s">
-        <v>733</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.25">
@@ -7573,7 +9715,7 @@
         <v>620</v>
       </c>
       <c r="B620" s="2" t="s">
-        <v>733</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.25">
@@ -7581,7 +9723,7 @@
         <v>621</v>
       </c>
       <c r="B621" s="2" t="s">
-        <v>733</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.25">
@@ -7589,7 +9731,7 @@
         <v>622</v>
       </c>
       <c r="B622" s="2" t="s">
-        <v>733</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.25">
@@ -7597,7 +9739,7 @@
         <v>623</v>
       </c>
       <c r="B623" s="2" t="s">
-        <v>733</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.25">
@@ -7605,7 +9747,7 @@
         <v>624</v>
       </c>
       <c r="B624" s="2" t="s">
-        <v>733</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.25">
@@ -7613,7 +9755,7 @@
         <v>625</v>
       </c>
       <c r="B625" s="2" t="s">
-        <v>733</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.25">
@@ -7621,7 +9763,7 @@
         <v>626</v>
       </c>
       <c r="B626" s="2" t="s">
-        <v>733</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.25">
@@ -7629,7 +9771,7 @@
         <v>627</v>
       </c>
       <c r="B627" s="2" t="s">
-        <v>733</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.25">
@@ -7637,7 +9779,7 @@
         <v>628</v>
       </c>
       <c r="B628" s="2" t="s">
-        <v>733</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.25">
@@ -7645,7 +9787,7 @@
         <v>629</v>
       </c>
       <c r="B629" s="2" t="s">
-        <v>733</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.25">
@@ -7653,7 +9795,7 @@
         <v>630</v>
       </c>
       <c r="B630" s="2" t="s">
-        <v>733</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.25">
@@ -7661,7 +9803,7 @@
         <v>631</v>
       </c>
       <c r="B631" s="2" t="s">
-        <v>733</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.25">
@@ -7669,7 +9811,7 @@
         <v>632</v>
       </c>
       <c r="B632" s="2" t="s">
-        <v>733</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.25">
@@ -7677,7 +9819,7 @@
         <v>633</v>
       </c>
       <c r="B633" s="2" t="s">
-        <v>733</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.25">
@@ -7685,7 +9827,7 @@
         <v>634</v>
       </c>
       <c r="B634" s="2" t="s">
-        <v>733</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.25">
@@ -7693,7 +9835,7 @@
         <v>635</v>
       </c>
       <c r="B635" s="2" t="s">
-        <v>733</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.25">
@@ -7701,7 +9843,7 @@
         <v>636</v>
       </c>
       <c r="B636" s="2" t="s">
-        <v>733</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.25">
@@ -7709,7 +9851,7 @@
         <v>637</v>
       </c>
       <c r="B637" s="2" t="s">
-        <v>733</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.25">
@@ -7717,7 +9859,7 @@
         <v>638</v>
       </c>
       <c r="B638" s="2" t="s">
-        <v>733</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.25">
@@ -7725,7 +9867,7 @@
         <v>639</v>
       </c>
       <c r="B639" s="2" t="s">
-        <v>733</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.25">
@@ -7733,7 +9875,7 @@
         <v>640</v>
       </c>
       <c r="B640" s="2" t="s">
-        <v>733</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.25">
@@ -7741,7 +9883,7 @@
         <v>641</v>
       </c>
       <c r="B641" s="2" t="s">
-        <v>733</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.25">
@@ -7749,7 +9891,7 @@
         <v>642</v>
       </c>
       <c r="B642" s="2" t="s">
-        <v>733</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.25">
@@ -7757,7 +9899,7 @@
         <v>643</v>
       </c>
       <c r="B643" s="2" t="s">
-        <v>733</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.25">
@@ -7765,7 +9907,7 @@
         <v>644</v>
       </c>
       <c r="B644" s="2" t="s">
-        <v>733</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.25">
@@ -7773,7 +9915,7 @@
         <v>645</v>
       </c>
       <c r="B645" s="2" t="s">
-        <v>733</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.25">
@@ -7781,7 +9923,7 @@
         <v>646</v>
       </c>
       <c r="B646" s="2" t="s">
-        <v>733</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.25">
@@ -7789,7 +9931,7 @@
         <v>647</v>
       </c>
       <c r="B647" s="2" t="s">
-        <v>733</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.25">
@@ -7797,7 +9939,7 @@
         <v>648</v>
       </c>
       <c r="B648" s="2" t="s">
-        <v>733</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.25">
@@ -7805,7 +9947,7 @@
         <v>649</v>
       </c>
       <c r="B649" s="2" t="s">
-        <v>733</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.25">
@@ -7813,7 +9955,7 @@
         <v>650</v>
       </c>
       <c r="B650" s="2" t="s">
-        <v>733</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.25">
@@ -7821,7 +9963,7 @@
         <v>651</v>
       </c>
       <c r="B651" s="2" t="s">
-        <v>733</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.25">
@@ -7829,7 +9971,7 @@
         <v>652</v>
       </c>
       <c r="B652" s="2" t="s">
-        <v>733</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.25">
@@ -7837,7 +9979,7 @@
         <v>653</v>
       </c>
       <c r="B653" s="2" t="s">
-        <v>733</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.25">
@@ -7845,7 +9987,7 @@
         <v>654</v>
       </c>
       <c r="B654" s="2" t="s">
-        <v>733</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.25">
@@ -7853,7 +9995,7 @@
         <v>655</v>
       </c>
       <c r="B655" s="2" t="s">
-        <v>733</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.25">
@@ -7861,7 +10003,7 @@
         <v>656</v>
       </c>
       <c r="B656" s="2" t="s">
-        <v>733</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.25">
@@ -7869,7 +10011,7 @@
         <v>657</v>
       </c>
       <c r="B657" s="2" t="s">
-        <v>733</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.25">
@@ -7877,7 +10019,7 @@
         <v>658</v>
       </c>
       <c r="B658" s="2" t="s">
-        <v>733</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.25">
@@ -7885,7 +10027,7 @@
         <v>659</v>
       </c>
       <c r="B659" s="2" t="s">
-        <v>733</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.25">
@@ -7893,7 +10035,7 @@
         <v>660</v>
       </c>
       <c r="B660" s="2" t="s">
-        <v>733</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.25">
@@ -7901,7 +10043,7 @@
         <v>661</v>
       </c>
       <c r="B661" s="2" t="s">
-        <v>733</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.25">
@@ -7909,7 +10051,7 @@
         <v>662</v>
       </c>
       <c r="B662" s="2" t="s">
-        <v>733</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.25">
@@ -7917,7 +10059,7 @@
         <v>663</v>
       </c>
       <c r="B663" s="2" t="s">
-        <v>733</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.25">
@@ -7925,7 +10067,7 @@
         <v>664</v>
       </c>
       <c r="B664" s="2" t="s">
-        <v>733</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.25">
@@ -7933,7 +10075,7 @@
         <v>665</v>
       </c>
       <c r="B665" s="2" t="s">
-        <v>733</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.25">
@@ -7941,7 +10083,7 @@
         <v>666</v>
       </c>
       <c r="B666" s="2" t="s">
-        <v>733</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.25">
@@ -7949,7 +10091,7 @@
         <v>667</v>
       </c>
       <c r="B667" s="2" t="s">
-        <v>733</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.25">
@@ -7957,7 +10099,7 @@
         <v>668</v>
       </c>
       <c r="B668" s="2" t="s">
-        <v>733</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.25">
@@ -7965,7 +10107,7 @@
         <v>669</v>
       </c>
       <c r="B669" s="2" t="s">
-        <v>733</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.25">
@@ -7973,7 +10115,7 @@
         <v>670</v>
       </c>
       <c r="B670" s="2" t="s">
-        <v>733</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.25">
@@ -7981,7 +10123,7 @@
         <v>671</v>
       </c>
       <c r="B671" s="2" t="s">
-        <v>733</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.25">
@@ -7989,7 +10131,7 @@
         <v>672</v>
       </c>
       <c r="B672" s="2" t="s">
-        <v>733</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.25">
@@ -7997,7 +10139,7 @@
         <v>673</v>
       </c>
       <c r="B673" s="2" t="s">
-        <v>733</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.25">
@@ -8005,7 +10147,7 @@
         <v>674</v>
       </c>
       <c r="B674" s="2" t="s">
-        <v>733</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.25">
@@ -8013,7 +10155,7 @@
         <v>675</v>
       </c>
       <c r="B675" s="2" t="s">
-        <v>733</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.25">
@@ -8021,7 +10163,7 @@
         <v>676</v>
       </c>
       <c r="B676" s="2" t="s">
-        <v>733</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.25">
@@ -8029,7 +10171,7 @@
         <v>677</v>
       </c>
       <c r="B677" s="2" t="s">
-        <v>733</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.25">
@@ -8037,7 +10179,7 @@
         <v>678</v>
       </c>
       <c r="B678" s="2" t="s">
-        <v>733</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.25">
@@ -8045,7 +10187,7 @@
         <v>679</v>
       </c>
       <c r="B679" s="2" t="s">
-        <v>733</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.25">
@@ -8053,7 +10195,7 @@
         <v>680</v>
       </c>
       <c r="B680" s="2" t="s">
-        <v>733</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.25">
@@ -8061,7 +10203,7 @@
         <v>681</v>
       </c>
       <c r="B681" s="2" t="s">
-        <v>733</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.25">
@@ -8069,7 +10211,7 @@
         <v>682</v>
       </c>
       <c r="B682" s="2" t="s">
-        <v>733</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.25">
@@ -8077,7 +10219,7 @@
         <v>683</v>
       </c>
       <c r="B683" s="2" t="s">
-        <v>733</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.25">
@@ -8085,7 +10227,7 @@
         <v>684</v>
       </c>
       <c r="B684" s="2" t="s">
-        <v>733</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.25">
@@ -8093,7 +10235,7 @@
         <v>685</v>
       </c>
       <c r="B685" s="2" t="s">
-        <v>733</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.25">
@@ -8101,7 +10243,7 @@
         <v>686</v>
       </c>
       <c r="B686" s="2" t="s">
-        <v>733</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.25">
@@ -8109,7 +10251,7 @@
         <v>687</v>
       </c>
       <c r="B687" s="2" t="s">
-        <v>733</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.25">
@@ -8117,7 +10259,7 @@
         <v>688</v>
       </c>
       <c r="B688" s="2" t="s">
-        <v>733</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.25">
@@ -8125,7 +10267,7 @@
         <v>689</v>
       </c>
       <c r="B689" s="2" t="s">
-        <v>733</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.25">
@@ -8133,7 +10275,7 @@
         <v>690</v>
       </c>
       <c r="B690" s="2" t="s">
-        <v>733</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.25">
@@ -8141,7 +10283,7 @@
         <v>691</v>
       </c>
       <c r="B691" s="2" t="s">
-        <v>733</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.25">
@@ -8149,7 +10291,7 @@
         <v>692</v>
       </c>
       <c r="B692" s="2" t="s">
-        <v>733</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.25">
@@ -8157,7 +10299,7 @@
         <v>693</v>
       </c>
       <c r="B693" s="2" t="s">
-        <v>733</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.25">
@@ -8165,7 +10307,7 @@
         <v>694</v>
       </c>
       <c r="B694" s="2" t="s">
-        <v>733</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.25">
@@ -8173,7 +10315,7 @@
         <v>695</v>
       </c>
       <c r="B695" s="2" t="s">
-        <v>733</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.25">
@@ -8181,7 +10323,7 @@
         <v>696</v>
       </c>
       <c r="B696" s="2" t="s">
-        <v>733</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.25">
@@ -8189,7 +10331,7 @@
         <v>697</v>
       </c>
       <c r="B697" s="2" t="s">
-        <v>733</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.25">
@@ -8197,7 +10339,7 @@
         <v>698</v>
       </c>
       <c r="B698" s="2" t="s">
-        <v>733</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.25">
@@ -8205,7 +10347,7 @@
         <v>699</v>
       </c>
       <c r="B699" s="2" t="s">
-        <v>733</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.25">
@@ -8213,7 +10355,7 @@
         <v>700</v>
       </c>
       <c r="B700" s="2" t="s">
-        <v>733</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.25">
@@ -8221,7 +10363,7 @@
         <v>701</v>
       </c>
       <c r="B701" s="2" t="s">
-        <v>733</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.25">
@@ -8229,7 +10371,7 @@
         <v>702</v>
       </c>
       <c r="B702" s="2" t="s">
-        <v>733</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.25">
@@ -8237,7 +10379,7 @@
         <v>703</v>
       </c>
       <c r="B703" s="2" t="s">
-        <v>733</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.25">
@@ -8245,7 +10387,7 @@
         <v>704</v>
       </c>
       <c r="B704" s="2" t="s">
-        <v>733</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.25">
@@ -8253,7 +10395,7 @@
         <v>705</v>
       </c>
       <c r="B705" s="2" t="s">
-        <v>733</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.25">
@@ -8261,7 +10403,7 @@
         <v>706</v>
       </c>
       <c r="B706" s="2" t="s">
-        <v>733</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.25">
@@ -8269,7 +10411,7 @@
         <v>707</v>
       </c>
       <c r="B707" s="2" t="s">
-        <v>733</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.25">
@@ -8277,7 +10419,7 @@
         <v>708</v>
       </c>
       <c r="B708" s="2" t="s">
-        <v>733</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.25">
@@ -8285,7 +10427,7 @@
         <v>709</v>
       </c>
       <c r="B709" s="2" t="s">
-        <v>733</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.25">
@@ -8293,7 +10435,7 @@
         <v>710</v>
       </c>
       <c r="B710" s="2" t="s">
-        <v>733</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.25">
@@ -8301,7 +10443,7 @@
         <v>711</v>
       </c>
       <c r="B711" s="2" t="s">
-        <v>733</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.25">
@@ -8309,7 +10451,7 @@
         <v>712</v>
       </c>
       <c r="B712" s="2" t="s">
-        <v>733</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.25">
@@ -8317,7 +10459,7 @@
         <v>713</v>
       </c>
       <c r="B713" s="2" t="s">
-        <v>733</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.25">
@@ -8325,7 +10467,7 @@
         <v>714</v>
       </c>
       <c r="B714" s="2" t="s">
-        <v>733</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.25">
@@ -8333,7 +10475,7 @@
         <v>715</v>
       </c>
       <c r="B715" s="2" t="s">
-        <v>733</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.25">
@@ -8341,7 +10483,7 @@
         <v>716</v>
       </c>
       <c r="B716" s="2" t="s">
-        <v>733</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.25">
@@ -8349,7 +10491,7 @@
         <v>717</v>
       </c>
       <c r="B717" s="2" t="s">
-        <v>733</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.25">
@@ -8357,7 +10499,7 @@
         <v>718</v>
       </c>
       <c r="B718" s="2" t="s">
-        <v>733</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.25">
@@ -8365,7 +10507,7 @@
         <v>719</v>
       </c>
       <c r="B719" s="2" t="s">
-        <v>733</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.25">
@@ -8373,7 +10515,7 @@
         <v>720</v>
       </c>
       <c r="B720" s="2" t="s">
-        <v>733</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.25">
@@ -8381,7 +10523,7 @@
         <v>721</v>
       </c>
       <c r="B721" s="2" t="s">
-        <v>733</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.25">
@@ -8389,7 +10531,7 @@
         <v>722</v>
       </c>
       <c r="B722" s="2" t="s">
-        <v>733</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.25">
@@ -8397,7 +10539,7 @@
         <v>723</v>
       </c>
       <c r="B723" s="2" t="s">
-        <v>733</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.25">
@@ -8405,7 +10547,7 @@
         <v>724</v>
       </c>
       <c r="B724" s="2" t="s">
-        <v>733</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.25">
@@ -8413,7 +10555,7 @@
         <v>725</v>
       </c>
       <c r="B725" s="2" t="s">
-        <v>733</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.25">
@@ -8421,7 +10563,7 @@
         <v>726</v>
       </c>
       <c r="B726" s="2" t="s">
-        <v>733</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.25">
@@ -8429,7 +10571,7 @@
         <v>727</v>
       </c>
       <c r="B727" s="2" t="s">
-        <v>733</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.25">
@@ -8437,7 +10579,7 @@
         <v>728</v>
       </c>
       <c r="B728" s="2" t="s">
-        <v>733</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.25">
@@ -8445,7 +10587,7 @@
         <v>729</v>
       </c>
       <c r="B729" s="2" t="s">
-        <v>733</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.25">
@@ -8453,7 +10595,7 @@
         <v>730</v>
       </c>
       <c r="B730" s="2" t="s">
-        <v>733</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.25">
@@ -8461,7 +10603,7 @@
         <v>731</v>
       </c>
       <c r="B731" s="2" t="s">
-        <v>733</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.25">
@@ -8469,13 +10611,15 @@
         <v>732</v>
       </c>
       <c r="B732" s="2" t="s">
-        <v>733</v>
-      </c>
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B733" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{EE13F37D-0D4F-4812-BFB4-00C758B68904}"/>
-    <hyperlink ref="B3:B732" r:id="rId2" display="gabriellp7245@gmail.com" xr:uid="{21C9029E-A1D3-49A2-84D7-717C4520657B}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{F57D847D-131E-4FAD-922B-D5FED8D7AA2E}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
